--- a/TP N° 1 Aguilera Oscar.xlsx
+++ b/TP N° 1 Aguilera Oscar.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PASCALITO 9\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5810A9-DF58-4248-B442-11663F983A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Empleado De Administracion" sheetId="4" r:id="rId2"/>
+    <sheet name="Empleados de MKT" sheetId="2" r:id="rId3"/>
+    <sheet name="Empleado de Vta" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$D$1:$D$18</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
   <si>
     <t>EMPRESA EL TREBOL S.A</t>
   </si>
@@ -133,16 +143,25 @@
   </si>
   <si>
     <t>Mkt</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Cantidad de Epleados</t>
+  </si>
+  <si>
+    <t>Rango de Suedo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +188,19 @@
       <name val="Courier"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +216,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,9 +289,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -270,18 +306,27 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -293,14 +338,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,7 +386,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -410,7 +458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,28 +631,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -620,8 +679,18 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="10">
+        <f>COUNTIF(D3:D18,"Mkt")</f>
+        <v>6</v>
+      </c>
+      <c r="I2" s="12">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -634,11 +703,19 @@
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>2500</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <f>COUNTIF(D4:D19,"Vta")</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -651,11 +728,19 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>3600</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10">
+        <f>COUNTIF(D4:D20,"Adm")</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -668,11 +753,11 @@
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>4500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -685,11 +770,11 @@
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -702,11 +787,11 @@
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>3900</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -719,11 +804,11 @@
       <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -736,11 +821,11 @@
       <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -753,11 +838,11 @@
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>4500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -770,11 +855,11 @@
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>7000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -787,11 +872,11 @@
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -804,11 +889,11 @@
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>3600</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -821,11 +906,11 @@
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>8500</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -838,11 +923,11 @@
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>4500</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -855,7 +940,7 @@
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>500</v>
       </c>
     </row>
@@ -872,7 +957,7 @@
       <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>7800</v>
       </c>
     </row>
@@ -889,11 +974,12 @@
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>9000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
@@ -903,25 +989,354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA5D71E-EA1D-42BA-A8AB-EDF0C60429FF}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>25783</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3">
+        <v>36386</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3">
+        <v>28761</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>29558</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3">
+        <v>28066</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>27740</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3">
+        <v>26952</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3">
+        <v>25815</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3">
+        <v>27848</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3">
+        <v>28793</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3">
+        <v>27692</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6">
+        <v>9000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>23754</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>29366</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3">
+        <v>28736</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <v>27742</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>26450</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>